--- a/Employee_Reports28/Hernan John Baguion Murcillos Q0542.xlsx
+++ b/Employee_Reports28/Hernan John Baguion Murcillos Q0542.xlsx
@@ -18,7 +18,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,10 +28,7 @@
     </font>
     <font>
       <b val="1"/>
-      <sz val="14"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <color rgb="00FFFFFF"/>
     </font>
   </fonts>
   <fills count="4">
@@ -77,7 +74,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -571,11 +568,11 @@
         </is>
       </c>
       <c r="H3" s="3" t="n">
-        <v>443</v>
+        <v>435</v>
       </c>
       <c r="I3" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J3" s="3" t="inlineStr">
@@ -620,11 +617,11 @@
         </is>
       </c>
       <c r="H4" s="3" t="n">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="I4" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J4" s="3" t="inlineStr">
@@ -669,11 +666,11 @@
         </is>
       </c>
       <c r="H5" s="3" t="n">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I5" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J5" s="3" t="inlineStr">
@@ -718,11 +715,11 @@
         </is>
       </c>
       <c r="H6" s="4" t="n">
-        <v>-45</v>
+        <v>-53</v>
       </c>
       <c r="I6" s="4" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J6" s="4" t="inlineStr">
@@ -733,53 +730,53 @@
       <c r="K6" s="4" t="inlineStr"/>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="n">
+      <c r="A7" s="4" t="n">
         <v>5</v>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="4" t="inlineStr">
         <is>
           <t>Castor Roller Deck  (CBF Trainings)</t>
         </is>
       </c>
-      <c r="C7" s="3" t="inlineStr">
+      <c r="C7" s="4" t="inlineStr">
         <is>
           <t>CBF&amp;AVI</t>
         </is>
       </c>
-      <c r="D7" s="3" t="inlineStr">
+      <c r="D7" s="4" t="inlineStr">
         <is>
           <t>LSME-CBF-02-005</t>
         </is>
       </c>
-      <c r="E7" s="3" t="inlineStr">
+      <c r="E7" s="4" t="inlineStr">
         <is>
           <t>EQUIPMENT MANUAL</t>
         </is>
       </c>
-      <c r="F7" s="3" t="inlineStr">
+      <c r="F7" s="4" t="inlineStr">
         <is>
           <t>25-Oct-2023</t>
         </is>
       </c>
-      <c r="G7" s="3" t="inlineStr">
+      <c r="G7" s="4" t="inlineStr">
         <is>
           <t>24-Oct-2025</t>
         </is>
       </c>
-      <c r="H7" s="3" t="n">
-        <v>45</v>
-      </c>
-      <c r="I7" s="3" t="inlineStr">
-        <is>
-          <t>08-Sep-2025</t>
-        </is>
-      </c>
-      <c r="J7" s="3" t="inlineStr">
-        <is>
-          <t>VALID</t>
-        </is>
-      </c>
-      <c r="K7" s="3" t="inlineStr"/>
+      <c r="H7" s="4" t="n">
+        <v>37</v>
+      </c>
+      <c r="I7" s="4" t="inlineStr">
+        <is>
+          <t>16-Sep-2025</t>
+        </is>
+      </c>
+      <c r="J7" s="4" t="inlineStr">
+        <is>
+          <t>NOT VALID</t>
+        </is>
+      </c>
+      <c r="K7" s="4" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="3" t="n">
@@ -816,11 +813,11 @@
         </is>
       </c>
       <c r="H8" s="3" t="n">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="I8" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J8" s="3" t="inlineStr">
@@ -865,11 +862,11 @@
         </is>
       </c>
       <c r="H9" s="3" t="n">
-        <v>354</v>
+        <v>346</v>
       </c>
       <c r="I9" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J9" s="3" t="inlineStr">
@@ -912,11 +909,11 @@
         </is>
       </c>
       <c r="H10" s="3" t="n">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="I10" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J10" s="3" t="inlineStr">
@@ -959,11 +956,11 @@
         </is>
       </c>
       <c r="H11" s="3" t="n">
-        <v>182</v>
+        <v>174</v>
       </c>
       <c r="I11" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J11" s="3" t="inlineStr">
@@ -1006,11 +1003,11 @@
         </is>
       </c>
       <c r="H12" s="3" t="n">
-        <v>185</v>
+        <v>177</v>
       </c>
       <c r="I12" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J12" s="3" t="inlineStr">
@@ -1043,11 +1040,11 @@
         </is>
       </c>
       <c r="H13" s="3" t="n">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="I13" s="3" t="inlineStr">
         <is>
-          <t>08-Sep-2025</t>
+          <t>16-Sep-2025</t>
         </is>
       </c>
       <c r="J13" s="3" t="inlineStr">
